--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,25 +2334,31 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2169,11 +2366,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2286,20 +2501,20 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2645,26 +2906,32 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,16 +2974,22 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -2725,10 +2998,10 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
@@ -2743,24 +3016,30 @@
         <v>500</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2769,10 +3048,10 @@
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -2787,16 +3066,22 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,20 +3141,20 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,16 +3324,22 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -3033,10 +3348,10 @@
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
@@ -3051,16 +3366,22 @@
         <v>500</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3594,19 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E72" s="3">
         <v>-2200</v>
@@ -3271,10 +3618,10 @@
         <v>-2200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J72" s="3">
         <v>-2100</v>
@@ -3286,10 +3633,10 @@
         <v>-2100</v>
       </c>
       <c r="M72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="N72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="O72" s="3">
         <v>-2000</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3794,19 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
@@ -3447,10 +3818,10 @@
         <v>-600</v>
       </c>
       <c r="H76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
@@ -3462,10 +3833,10 @@
         <v>-500</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4124,14 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2354,14 +2453,14 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2372,8 +2471,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2501,8 +2609,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2516,8 +2624,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2912,8 +3043,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2921,17 +3052,20 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,7 +3129,7 @@
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3004,7 +3141,7 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -3022,7 +3159,7 @@
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,7 +3182,7 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -3054,7 +3194,7 @@
         <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -3072,7 +3212,7 @@
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,8 +3287,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,7 +3500,7 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
@@ -3354,7 +3512,7 @@
         <v>600</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3372,7 +3530,7 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,7 +3783,7 @@
         <v>-2300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F72" s="3">
         <v>-2200</v>
@@ -3624,7 +3798,7 @@
         <v>-2200</v>
       </c>
       <c r="J72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K72" s="3">
         <v>-2100</v>
@@ -3639,7 +3813,7 @@
         <v>-2100</v>
       </c>
       <c r="O72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="P72" s="3">
         <v>-2000</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,7 +3995,7 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-600</v>
@@ -3824,7 +4010,7 @@
         <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
@@ -3839,7 +4025,7 @@
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4589,14 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2456,14 +2555,14 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2612,8 +2720,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2627,8 +2735,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3046,8 +3177,8 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -3055,40 +3186,43 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3117,34 +3251,37 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
@@ -3162,7 +3299,7 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3185,7 +3325,7 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
@@ -3197,7 +3337,7 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -3215,7 +3355,7 @@
         <v>500</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,8 +3436,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3503,7 +3661,7 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
@@ -3515,7 +3673,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3533,7 +3691,7 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,7 +3960,7 @@
         <v>-2300</v>
       </c>
       <c r="F72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G72" s="3">
         <v>-2200</v>
@@ -3801,7 +3975,7 @@
         <v>-2200</v>
       </c>
       <c r="K72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="L72" s="3">
         <v>-2100</v>
@@ -3816,7 +3990,7 @@
         <v>-2100</v>
       </c>
       <c r="P72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="Q72" s="3">
         <v>-2000</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3998,7 +4184,7 @@
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -4013,7 +4199,7 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-500</v>
@@ -4028,7 +4214,7 @@
         <v>-500</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1230,15 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1705,13 +1808,19 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2180,19 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,19 +2605,25 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2452,11 +2637,11 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2558,17 +2755,17 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2576,11 +2773,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2723,11 +2938,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2738,11 +2953,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3180,31 +3441,37 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -3216,19 +3483,19 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3254,8 +3521,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3281,13 +3554,13 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -3302,24 +3575,30 @@
         <v>500</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -3328,10 +3607,10 @@
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3340,10 +3619,10 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
@@ -3358,16 +3637,22 @@
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,13 +3707,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3439,11 +3730,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3454,11 +3745,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +3955,22 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -3664,10 +3979,10 @@
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3676,10 +3991,10 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
@@ -3694,16 +4009,22 @@
         <v>500</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4289,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E72" s="3">
         <v>-2300</v>
@@ -3963,10 +4310,10 @@
         <v>-2300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="I72" s="3">
         <v>-2200</v>
@@ -3978,10 +4325,10 @@
         <v>-2200</v>
       </c>
       <c r="L72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="M72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="N72" s="3">
         <v>-2100</v>
@@ -3993,10 +4340,10 @@
         <v>-2100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="R72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="S72" s="3">
         <v>-2000</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4537,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
@@ -4187,10 +4558,10 @@
         <v>-700</v>
       </c>
       <c r="G76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
@@ -4202,10 +4573,10 @@
         <v>-600</v>
       </c>
       <c r="L76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
@@ -4217,10 +4588,10 @@
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5055,14 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2625,8 +2718,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2643,8 +2736,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,40 +2831,43 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2944,8 +3052,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3067,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3447,8 +3578,8 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3456,17 +3587,20 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3489,7 +3623,7 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -3498,7 +3632,7 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3560,10 +3697,10 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3581,7 +3718,7 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3601,7 +3741,7 @@
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
@@ -3613,7 +3753,7 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3625,7 +3765,7 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
@@ -3643,7 +3783,7 @@
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,16 +3856,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3736,8 +3882,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3973,7 +4131,7 @@
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
@@ -3985,7 +4143,7 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -3997,7 +4155,7 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
@@ -4015,7 +4173,7 @@
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,7 +4478,7 @@
         <v>-2400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F72" s="3">
         <v>-2300</v>
@@ -4316,7 +4490,7 @@
         <v>-2300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J72" s="3">
         <v>-2200</v>
@@ -4331,7 +4505,7 @@
         <v>-2200</v>
       </c>
       <c r="N72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="O72" s="3">
         <v>-2100</v>
@@ -4346,7 +4520,7 @@
         <v>-2100</v>
       </c>
       <c r="S72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="T72" s="3">
         <v>-2000</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,7 +4738,7 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
@@ -4564,7 +4750,7 @@
         <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
@@ -4579,7 +4765,7 @@
         <v>-600</v>
       </c>
       <c r="N76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
@@ -4594,7 +4780,7 @@
         <v>-500</v>
       </c>
       <c r="S76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,13 +1853,16 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1869,13 +1921,16 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,13 +2329,16 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2721,8 +2814,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2739,8 +2832,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2860,17 +2959,17 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3178,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3581,8 +3712,8 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3590,17 +3721,20 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,7 +3745,7 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3626,7 +3760,7 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -3635,7 +3769,7 @@
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3700,10 +3837,10 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
@@ -3721,7 +3858,7 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3744,7 +3884,7 @@
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -3756,7 +3896,7 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -3768,7 +3908,7 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
@@ -3786,7 +3926,7 @@
         <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,8 +4016,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3885,8 +4031,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3900,8 +4046,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4134,7 +4292,7 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -4146,7 +4304,7 @@
         <v>700</v>
       </c>
       <c r="K66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -4158,7 +4316,7 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
@@ -4176,7 +4334,7 @@
         <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4481,7 +4655,7 @@
         <v>-2400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G72" s="3">
         <v>-2300</v>
@@ -4493,7 +4667,7 @@
         <v>-2300</v>
       </c>
       <c r="J72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K72" s="3">
         <v>-2200</v>
@@ -4508,7 +4682,7 @@
         <v>-2200</v>
       </c>
       <c r="O72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="P72" s="3">
         <v>-2100</v>
@@ -4523,7 +4697,7 @@
         <v>-2100</v>
       </c>
       <c r="T72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="U72" s="3">
         <v>-2000</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,7 +4927,7 @@
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
@@ -4753,7 +4939,7 @@
         <v>-700</v>
       </c>
       <c r="J76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K76" s="3">
         <v>-600</v>
@@ -4768,7 +4954,7 @@
         <v>-600</v>
       </c>
       <c r="O76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-500</v>
@@ -4783,7 +4969,7 @@
         <v>-500</v>
       </c>
       <c r="T76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5753,14 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1337,15 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1354,8 +1407,14 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1481,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1657,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1731,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1805,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1953,19 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1924,13 +2027,19 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1992,8 +2101,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,13 +2471,19 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2400,8 +2545,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2619,19 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2536,81 +2693,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2832,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2902,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2817,11 +3002,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2835,11 +3020,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2962,20 +3159,20 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2983,11 +3180,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3001,8 +3198,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3166,11 +3381,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3181,11 +3396,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,16 +3790,22 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3613,8 +3864,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3715,26 +3976,32 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,10 +4015,10 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -3763,19 +4030,19 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,16 +4068,22 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3840,13 +4113,13 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3861,24 +4134,30 @@
         <v>500</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
@@ -3887,10 +4166,10 @@
         <v>800</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -3899,10 +4178,10 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3911,10 +4190,10 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
@@ -3929,16 +4208,22 @@
         <v>500</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,25 +4290,31 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4034,11 +4325,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4049,11 +4340,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,16 +4586,22 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
@@ -4295,10 +4610,10 @@
         <v>800</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -4307,10 +4622,10 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
@@ -4319,10 +4634,10 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
@@ -4337,16 +4652,22 @@
         <v>500</v>
       </c>
       <c r="V66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4984,14 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4658,10 +5005,10 @@
         <v>-2400</v>
       </c>
       <c r="G72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I72" s="3">
         <v>-2300</v>
@@ -4670,10 +5017,10 @@
         <v>-2300</v>
       </c>
       <c r="K72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="L72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="M72" s="3">
         <v>-2200</v>
@@ -4685,10 +5032,10 @@
         <v>-2200</v>
       </c>
       <c r="P72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="R72" s="3">
         <v>-2100</v>
@@ -4700,10 +5047,10 @@
         <v>-2100</v>
       </c>
       <c r="U72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="V72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="W72" s="3">
         <v>-2000</v>
@@ -4711,8 +5058,14 @@
       <c r="X72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5280,14 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4930,10 +5301,10 @@
         <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
@@ -4942,10 +5313,10 @@
         <v>-700</v>
       </c>
       <c r="K76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
@@ -4957,10 +5328,10 @@
         <v>-600</v>
       </c>
       <c r="P76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R76" s="3">
         <v>-500</v>
@@ -4972,10 +5343,10 @@
         <v>-500</v>
       </c>
       <c r="U76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
@@ -4983,8 +5354,14 @@
       <c r="X76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5428,98 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5192,8 +5581,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6127,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5986,14 +6445,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,13 +1365,14 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,13 +2008,16 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2033,13 +2085,16 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,13 +2547,16 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,13 +2701,16 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3008,8 +3101,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -3026,8 +3119,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3165,17 +3264,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -3186,8 +3285,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3204,13 +3303,16 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3387,8 +3495,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3402,8 +3510,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,7 +3934,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3982,8 +4113,8 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
@@ -3991,17 +4122,20 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4021,7 +4155,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -4036,7 +4170,7 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -4045,7 +4179,7 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4223,7 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -4119,10 +4256,10 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -4140,7 +4277,7 @@
         <v>500</v>
       </c>
       <c r="X59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4160,7 +4300,7 @@
         <v>900</v>
       </c>
       <c r="F60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
@@ -4172,7 +4312,7 @@
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -4184,7 +4324,7 @@
         <v>700</v>
       </c>
       <c r="N60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -4196,7 +4336,7 @@
         <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
@@ -4214,7 +4354,7 @@
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4307,8 +4453,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4316,8 +4462,8 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4331,8 +4477,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4346,8 +4492,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4604,7 +4762,7 @@
         <v>900</v>
       </c>
       <c r="F66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>800</v>
@@ -4616,7 +4774,7 @@
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -4628,7 +4786,7 @@
         <v>700</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -4640,7 +4798,7 @@
         <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
@@ -4658,7 +4816,7 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,13 +5161,16 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E72" s="3">
         <v>-2400</v>
@@ -5011,7 +5185,7 @@
         <v>-2400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J72" s="3">
         <v>-2300</v>
@@ -5023,7 +5197,7 @@
         <v>-2300</v>
       </c>
       <c r="M72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="N72" s="3">
         <v>-2200</v>
@@ -5038,7 +5212,7 @@
         <v>-2200</v>
       </c>
       <c r="R72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="S72" s="3">
         <v>-2100</v>
@@ -5053,7 +5227,7 @@
         <v>-2100</v>
       </c>
       <c r="W72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="X72" s="3">
         <v>-2000</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,13 +5469,16 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
@@ -5307,7 +5493,7 @@
         <v>-800</v>
       </c>
       <c r="I76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-700</v>
@@ -5319,7 +5505,7 @@
         <v>-700</v>
       </c>
       <c r="M76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-600</v>
@@ -5334,7 +5520,7 @@
         <v>-600</v>
       </c>
       <c r="R76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="S76" s="3">
         <v>-500</v>
@@ -5349,7 +5535,7 @@
         <v>-500</v>
       </c>
       <c r="W76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,92 +5623,98 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6451,14 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ANSU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ANSU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3104,8 +3197,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -3122,8 +3215,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3267,17 +3366,17 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3288,8 +3387,8 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3498,8 +3606,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3513,8 +3621,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,7 +4063,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4116,8 +4247,8 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
@@ -4125,22 +4256,25 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -4158,7 +4292,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -4173,7 +4307,7 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -4182,7 +4316,7 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,7 +4363,7 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -4259,10 +4396,10 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
@@ -4280,7 +4417,7 @@
         <v>500</v>
       </c>
       <c r="Y59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z59" s="3">
         <v>400</v>
@@ -4288,13 +4425,16 @@
       <c r="AA59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -4303,7 +4443,7 @@
         <v>900</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
@@ -4315,7 +4455,7 @@
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
@@ -4327,7 +4467,7 @@
         <v>700</v>
       </c>
       <c r="O60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
@@ -4339,7 +4479,7 @@
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
@@ -4357,7 +4497,7 @@
         <v>500</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4456,8 +4602,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4465,8 +4611,8 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4480,8 +4626,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4495,8 +4641,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,13 +4905,16 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
@@ -4765,7 +4923,7 @@
         <v>900</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -4777,7 +4935,7 @@
         <v>800</v>
       </c>
       <c r="K66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
@@ -4789,7 +4947,7 @@
         <v>700</v>
       </c>
       <c r="O66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
@@ -4801,7 +4959,7 @@
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -4819,7 +4977,7 @@
         <v>500</v>
       </c>
       <c r="Y66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,7 +5347,7 @@
         <v>-2500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="F72" s="3">
         <v>-2400</v>
@@ -5188,7 +5362,7 @@
         <v>-2400</v>
       </c>
       <c r="J72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K72" s="3">
         <v>-2300</v>
@@ -5200,7 +5374,7 @@
         <v>-2300</v>
       </c>
       <c r="N72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="O72" s="3">
         <v>-2200</v>
@@ -5215,7 +5389,7 @@
         <v>-2200</v>
       </c>
       <c r="S72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="T72" s="3">
         <v>-2100</v>
@@ -5230,7 +5404,7 @@
         <v>-2100</v>
       </c>
       <c r="X72" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="Y72" s="3">
         <v>-2000</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,7 +5667,7 @@
         <v>-900</v>
       </c>
       <c r="E76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -5496,7 +5682,7 @@
         <v>-800</v>
       </c>
       <c r="J76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K76" s="3">
         <v>-700</v>
@@ -5508,7 +5694,7 @@
         <v>-700</v>
       </c>
       <c r="N76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
@@ -5523,7 +5709,7 @@
         <v>-600</v>
       </c>
       <c r="S76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-500</v>
@@ -5538,7 +5724,7 @@
         <v>-500</v>
       </c>
       <c r="X76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Y76" s="3">
         <v>-400</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6684,14 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>
